--- a/EHS2019/EHS/ExcelGenerator/Template/eHSD0028-VSS Claim_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSD0028-VSS Claim_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1245" yWindow="3420" windowWidth="18570" windowHeight="7500" tabRatio="760"/>
   </bookViews>
@@ -15,12 +20,12 @@
     <sheet name="Remark" sheetId="6" r:id="rId6"/>
     <sheet name="Change History" sheetId="25" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="144">
   <si>
     <t/>
   </si>
@@ -484,17 +489,7 @@
     <t>(ii) Measles Vaccination (YYYY/YY)</t>
   </si>
   <si>
-    <t>Measles</t>
-  </si>
-  <si>
     <t xml:space="preserve">(ii) Measles Vaccination </t>
-  </si>
-  <si>
-    <t>Measles****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**** Measles with start date on 10 Aug 2019
-</t>
   </si>
   <si>
     <t xml:space="preserve">(iii) By age group
@@ -511,12 +506,41 @@
   </si>
   <si>
     <t>LAIV Total</t>
+  </si>
+  <si>
+    <t>MMR-NIA^^</t>
+  </si>
+  <si>
+    <t>MMR-FDH^</t>
+  </si>
+  <si>
+    <t>MMR-NIA^^</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^^ Measles with start date on 14 Jan 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^ Measles with start date on 10 Aug 2019
+</t>
+  </si>
+  <si>
+    <t>CRE19-031</t>
+  </si>
+  <si>
+    <t>To provide statistics reports on measles vaccination of non-immune adults</t>
+  </si>
+  <si>
+    <t>MMR-NIA</t>
+  </si>
+  <si>
+    <t>MMR-FDH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
@@ -608,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,9 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1113,7 +1134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1148,7 +1169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,7 +1603,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="137" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1617,8 +1638,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+    <row r="9" spans="1:13" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="113" t="s">
@@ -1653,8 +1674,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+    <row r="10" spans="1:13" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="113" t="s">
@@ -1689,7 +1710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="113"/>
       <c r="C11" s="113"/>
       <c r="D11" s="113"/>
@@ -1702,7 +1723,7 @@
       <c r="K11" s="113"/>
       <c r="L11" s="113"/>
     </row>
-    <row r="12" spans="1:13" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="113"/>
       <c r="C12" s="113"/>
       <c r="D12" s="113"/>
@@ -1779,7 +1800,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="137" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="73" t="s">
@@ -1815,7 +1836,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>113</v>
       </c>
       <c r="B18" s="113" t="s">
@@ -1851,7 +1872,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="113" t="s">
@@ -1908,14 +1929,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="18.625" style="71"/>
-    <col min="17" max="19" width="18.625" style="141"/>
+    <col min="17" max="19" width="18.625" style="140"/>
     <col min="20" max="16384" width="18.625" style="71"/>
   </cols>
   <sheetData>
@@ -1961,10 +1982,10 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="131"/>
       <c r="E7" s="92" t="s">
         <v>46</v>
       </c>
@@ -1985,7 +2006,7 @@
       <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="126" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="95" t="s">
@@ -2007,73 +2028,72 @@
       <c r="E10" s="95"/>
       <c r="F10" s="97"/>
       <c r="J10" s="99"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-    </row>
-    <row r="11" spans="1:19" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+    </row>
+    <row r="11" spans="1:19" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-    </row>
-    <row r="13" spans="1:19" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="134" t="s">
+    <row r="12" spans="1:19" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+    </row>
+    <row r="13" spans="1:19" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="137"/>
+      <c r="B13" s="133" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="110" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
-        <v>129</v>
+    <row r="14" spans="1:19" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="132" t="s">
+        <v>143</v>
       </c>
       <c r="B14" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="J14" s="133"/>
-    </row>
-    <row r="15" spans="1:19" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="124"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="1:19" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+    </row>
+    <row r="15" spans="1:19" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="121"/>
+      <c r="J15" s="132"/>
+    </row>
+    <row r="16" spans="1:19" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="132"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="123"/>
+      <c r="J16" s="99"/>
+    </row>
+    <row r="17" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="80"/>
-    </row>
-    <row r="17" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
-      <c r="E17" s="145" t="s">
-        <v>48</v>
-      </c>
+      <c r="E17" s="80"/>
       <c r="F17" s="52"/>
       <c r="G17" s="71"/>
       <c r="H17" s="71"/>
@@ -2081,102 +2101,104 @@
       <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="144" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="52"/>
       <c r="G18" s="71"/>
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
-      <c r="J18" s="74"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="74"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B20" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C20" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D20" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E20" s="73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="80"/>
-    </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="80"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B22" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C22" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D22" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-    </row>
-    <row r="22" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>41</v>
-      </c>
+      <c r="E22" s="72"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="73"/>
+      <c r="A23" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="72"/>
@@ -2184,41 +2206,31 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B25" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C25" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D25" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
-    </row>
-    <row r="25" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>41</v>
-      </c>
+      <c r="E25" s="72"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
@@ -2226,11 +2238,21 @@
       <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="73"/>
+      <c r="A26" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>41</v>
+      </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
@@ -2238,41 +2260,31 @@
       <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
+    </row>
+    <row r="28" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B28" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C28" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D28" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="74"/>
-    </row>
-    <row r="28" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="113" t="s">
-        <v>26</v>
-      </c>
+      <c r="E28" s="132"/>
       <c r="F28" s="113"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
@@ -2280,11 +2292,21 @@
       <c r="J28" s="74"/>
     </row>
     <row r="29" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="A29" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>26</v>
+      </c>
       <c r="F29" s="113"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
@@ -2292,403 +2314,325 @@
       <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="74"/>
+    </row>
+    <row r="31" spans="1:10" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B31" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C31" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D31" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B32" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C32" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D32" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E32" s="73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="73"/>
-    </row>
-    <row r="33" spans="1:32" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="73"/>
+    </row>
+    <row r="34" spans="1:32" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B34" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C34" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D34" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="Q33" s="142"/>
-      <c r="R33" s="142"/>
-      <c r="S33" s="142"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="E34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B35" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C35" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="113" t="s">
+      <c r="D35" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E35" s="73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="74"/>
-    </row>
     <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="74"/>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B37" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="110" t="s">
+      <c r="C37" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="144" t="s">
+      <c r="E37" s="143" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74" t="s">
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B38" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C38" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D38" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="74" t="s">
+      <c r="E38" s="74" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-    </row>
-    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+    </row>
+    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="84" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="81" t="s">
+    <row r="42" spans="1:32" s="84" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C42" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D42" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E42" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F42" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G42" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H42" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="I41" s="83" t="s">
+      <c r="I42" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J42" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K42" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="83" t="s">
+      <c r="L42" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="M41" s="83" t="s">
+      <c r="M42" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="N41" s="83" t="s">
+      <c r="N42" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="O41" s="83" t="s">
+      <c r="O42" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="P41" s="83" t="s">
+      <c r="P42" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="Q41" s="136" t="s">
+      <c r="Q42" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="R41" s="136" t="s">
+      <c r="R42" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="S41" s="136" t="s">
+      <c r="S42" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="T41" s="86" t="s">
+      <c r="T42" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="U41" s="86" t="s">
+      <c r="U42" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="V41" s="86" t="s">
+      <c r="V42" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="W41" s="86" t="s">
+      <c r="W42" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="X41" s="86" t="s">
+      <c r="X42" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" s="86" t="s">
+      <c r="Y42" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="Z41" s="133" t="s">
+      <c r="Z42" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AA41" s="133" t="s">
+      <c r="AA42" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="AB41" s="110" t="s">
+      <c r="AB42" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="AC41" s="133"/>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="72"/>
-      <c r="AF41" s="76"/>
-    </row>
-    <row r="42" spans="1:32" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="78" t="s">
+      <c r="AC42" s="132"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="76"/>
+    </row>
+    <row r="43" spans="1:32" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="83"/>
+      <c r="B43" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D43" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E43" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H43" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="78" t="s">
+      <c r="I43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="J42" s="78" t="s">
+      <c r="J43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="K43" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="L42" s="78" t="s">
+      <c r="L43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="M42" s="78" t="s">
+      <c r="M43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="78" t="s">
+      <c r="N43" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="O42" s="78" t="s">
+      <c r="O43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="P42" s="78" t="s">
+      <c r="P43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="Q42" s="134" t="s">
+      <c r="Q43" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="R42" s="134" t="s">
+      <c r="R43" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="S42" s="134" t="s">
+      <c r="S43" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="T42" s="78" t="s">
+      <c r="T43" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="78" t="s">
+      <c r="U43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="V42" s="78" t="s">
+      <c r="V43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="W42" s="78" t="s">
+      <c r="W43" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="78" t="s">
+      <c r="X43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="Y42" s="78" t="s">
+      <c r="Y43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="Z42" s="134" t="s">
+      <c r="Z43" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="AA42" s="134" t="s">
+      <c r="AA43" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="AB42" s="130"/>
-      <c r="AC42" s="134"/>
-      <c r="AD42" s="130"/>
-      <c r="AE42" s="78"/>
-    </row>
-    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q43" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R43" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S43" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="T43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="V43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA43" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB43" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC43" s="131"/>
-      <c r="AD43" s="131"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
+      <c r="AB43" s="129"/>
+      <c r="AC43" s="133"/>
+      <c r="AD43" s="129"/>
+      <c r="AE43" s="78"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -2736,13 +2680,13 @@
       <c r="P44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q44" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R44" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S44" s="131" t="s">
+      <c r="Q44" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T44" s="26" t="s">
@@ -2763,22 +2707,22 @@
       <c r="Y44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z44" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA44" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC44" s="131"/>
-      <c r="AD44" s="131"/>
+      <c r="Z44" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA44" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB44" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC44" s="130"/>
+      <c r="AD44" s="130"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="26"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="71" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -2826,13 +2770,13 @@
       <c r="P45" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q45" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R45" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S45" s="131" t="s">
+      <c r="Q45" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R45" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T45" s="26" t="s">
@@ -2853,22 +2797,22 @@
       <c r="Y45" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z45" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA45" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB45" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC45" s="131"/>
-      <c r="AD45" s="131"/>
+      <c r="Z45" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB45" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC45" s="130"/>
+      <c r="AD45" s="130"/>
       <c r="AE45" s="26"/>
       <c r="AF45" s="26"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -2916,13 +2860,13 @@
       <c r="P46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q46" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R46" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S46" s="131" t="s">
+      <c r="Q46" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R46" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S46" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T46" s="26" t="s">
@@ -2943,292 +2887,292 @@
       <c r="Y46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z46" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA46" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB46" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC46" s="131"/>
-      <c r="AD46" s="131"/>
+      <c r="Z46" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA46" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB46" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC46" s="130"/>
+      <c r="AD46" s="130"/>
       <c r="AE46" s="26"/>
       <c r="AF46" s="26"/>
     </row>
-    <row r="47" spans="1:32" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="U47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="W47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="X47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB47" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC47" s="131"/>
-      <c r="AD47" s="131"/>
-      <c r="AE47" s="131"/>
-      <c r="AF47" s="131"/>
-    </row>
-    <row r="48" spans="1:32" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="P48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="U48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="W48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="X48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB48" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC48" s="131"/>
-      <c r="AD48" s="131"/>
-      <c r="AE48" s="131"/>
-      <c r="AF48" s="131"/>
-    </row>
-    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q49" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R49" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S49" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="T49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="V49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y49" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z49" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA49" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB49" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC49" s="131"/>
-      <c r="AD49" s="131"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
+    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R47" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z47" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA47" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB47" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC47" s="130"/>
+      <c r="AD47" s="130"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+    </row>
+    <row r="48" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB48" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC48" s="130"/>
+      <c r="AD48" s="130"/>
+      <c r="AE48" s="130"/>
+      <c r="AF48" s="130"/>
+    </row>
+    <row r="49" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB49" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC49" s="130"/>
+      <c r="AD49" s="130"/>
+      <c r="AE49" s="130"/>
+      <c r="AF49" s="130"/>
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -3276,13 +3220,13 @@
       <c r="P50" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q50" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R50" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S50" s="131" t="s">
+      <c r="Q50" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R50" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S50" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T50" s="26" t="s">
@@ -3303,22 +3247,22 @@
       <c r="Y50" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z50" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA50" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB50" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC50" s="131"/>
-      <c r="AD50" s="131"/>
+      <c r="Z50" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA50" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB50" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC50" s="130"/>
+      <c r="AD50" s="130"/>
       <c r="AE50" s="26"/>
       <c r="AF50" s="26"/>
     </row>
     <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="71" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="26" t="s">
@@ -3366,13 +3310,13 @@
       <c r="P51" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q51" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R51" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S51" s="131" t="s">
+      <c r="Q51" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R51" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S51" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T51" s="26" t="s">
@@ -3393,22 +3337,22 @@
       <c r="Y51" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z51" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA51" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB51" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC51" s="131"/>
-      <c r="AD51" s="131"/>
+      <c r="Z51" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA51" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB51" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC51" s="130"/>
+      <c r="AD51" s="130"/>
       <c r="AE51" s="26"/>
       <c r="AF51" s="26"/>
     </row>
     <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="26" t="s">
@@ -3456,13 +3400,13 @@
       <c r="P52" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q52" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R52" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S52" s="131" t="s">
+      <c r="Q52" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R52" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T52" s="26" t="s">
@@ -3483,17 +3427,17 @@
       <c r="Y52" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z52" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA52" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB52" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC52" s="131"/>
-      <c r="AD52" s="131"/>
+      <c r="Z52" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA52" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB52" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC52" s="130"/>
+      <c r="AD52" s="130"/>
       <c r="AE52" s="26"/>
       <c r="AF52" s="26"/>
     </row>
@@ -3546,13 +3490,13 @@
       <c r="P53" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q53" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R53" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S53" s="131" t="s">
+      <c r="Q53" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R53" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53" s="130" t="s">
         <v>42</v>
       </c>
       <c r="T53" s="26" t="s">
@@ -3573,720 +3517,720 @@
       <c r="Y53" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Z53" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA53" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB53" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC53" s="131"/>
-      <c r="AD53" s="131"/>
+      <c r="Z53" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA53" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB53" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC53" s="130"/>
+      <c r="AD53" s="130"/>
       <c r="AE53" s="26"/>
       <c r="AF53" s="26"/>
     </row>
-    <row r="54" spans="1:32" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="P54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="U54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="W54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="X54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB54" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC54" s="131"/>
-      <c r="AD54" s="131"/>
-      <c r="AE54" s="131"/>
-      <c r="AF54" s="131"/>
-    </row>
-    <row r="55" spans="1:32" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="P55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="U55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="W55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="X55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB55" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC55" s="131"/>
-      <c r="AD55" s="131"/>
-      <c r="AE55" s="131"/>
-      <c r="AF55" s="131"/>
-    </row>
-    <row r="56" spans="1:32" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="P56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="U56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="W56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="X56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB56" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC56" s="131"/>
-      <c r="AD56" s="131"/>
-      <c r="AE56" s="131"/>
-      <c r="AF56" s="131"/>
-    </row>
-    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q57" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R57" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S57" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="T57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="V57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z57" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA57" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB57" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC57" s="131"/>
-      <c r="AD57" s="131"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
+    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R54" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="T54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z54" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA54" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB54" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC54" s="130"/>
+      <c r="AD54" s="130"/>
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="26"/>
+    </row>
+    <row r="55" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB55" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130"/>
+      <c r="AE55" s="130"/>
+      <c r="AF55" s="130"/>
+    </row>
+    <row r="56" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB56" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC56" s="130"/>
+      <c r="AD56" s="130"/>
+      <c r="AE56" s="130"/>
+      <c r="AF56" s="130"/>
+    </row>
+    <row r="57" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB57" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="130"/>
+      <c r="AE57" s="130"/>
+      <c r="AF57" s="130"/>
     </row>
     <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="131"/>
-      <c r="S58" s="131"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="131"/>
-      <c r="AA58" s="131"/>
-      <c r="AB58" s="131"/>
-      <c r="AC58" s="131"/>
-      <c r="AD58" s="131"/>
+      <c r="A58" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R58" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S58" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="T58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z58" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA58" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB58" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC58" s="130"/>
+      <c r="AD58" s="130"/>
       <c r="AE58" s="26"/>
       <c r="AF58" s="26"/>
     </row>
-    <row r="59" spans="1:32" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="K59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="M59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="O59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="P59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="R59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="S59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="T59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="U59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="V59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="W59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="X59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB59" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC59" s="90"/>
-      <c r="AD59" s="90"/>
-      <c r="AE59" s="90"/>
-      <c r="AF59" s="90"/>
-    </row>
-    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="131"/>
-      <c r="R60" s="131"/>
-      <c r="S60" s="131"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="131"/>
-      <c r="AA60" s="131"/>
-      <c r="AB60" s="131"/>
-      <c r="AC60" s="131"/>
-      <c r="AD60" s="131"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
+    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="130"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="130"/>
+      <c r="AA59" s="130"/>
+      <c r="AB59" s="130"/>
+      <c r="AC59" s="130"/>
+      <c r="AD59" s="130"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="26"/>
+    </row>
+    <row r="60" spans="1:32" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="R60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="S60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="T60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="U60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="V60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="W60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="X60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB60" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC60" s="90"/>
+      <c r="AD60" s="90"/>
+      <c r="AE60" s="90"/>
+      <c r="AF60" s="90"/>
     </row>
     <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q61" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R61" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S61" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="T61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="V61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z61" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA61" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB61" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC61" s="131"/>
-      <c r="AD61" s="131"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="130"/>
+      <c r="R61" s="130"/>
+      <c r="S61" s="130"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="130"/>
+      <c r="AA61" s="130"/>
+      <c r="AB61" s="130"/>
+      <c r="AC61" s="130"/>
+      <c r="AD61" s="130"/>
       <c r="AE61" s="26"/>
       <c r="AF61" s="26"/>
     </row>
-    <row r="62" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="M62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="P62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="U62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="V62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="W62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="X62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB62" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC62" s="131"/>
-      <c r="AD62" s="131"/>
-      <c r="AE62" s="105"/>
-      <c r="AF62" s="105"/>
+    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q62" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R62" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="T62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z62" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA62" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB62" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC62" s="130"/>
+      <c r="AD62" s="130"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
     </row>
     <row r="63" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="105" t="s">
         <v>26</v>
@@ -4333,13 +4277,13 @@
       <c r="P63" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Q63" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R63" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S63" s="131" t="s">
+      <c r="Q63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" s="130" t="s">
         <v>26</v>
       </c>
       <c r="T63" s="105" t="s">
@@ -4360,23 +4304,23 @@
       <c r="Y63" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Z63" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA63" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB63" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC63" s="131"/>
-      <c r="AD63" s="131"/>
+      <c r="Z63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC63" s="130"/>
+      <c r="AD63" s="130"/>
       <c r="AE63" s="105"/>
       <c r="AF63" s="105"/>
     </row>
-    <row r="64" spans="1:32" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
-        <v>84</v>
+    <row r="64" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="103" t="s">
+        <v>83</v>
       </c>
       <c r="B64" s="105" t="s">
         <v>26</v>
@@ -4423,13 +4367,13 @@
       <c r="P64" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Q64" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R64" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S64" s="131" t="s">
+      <c r="Q64" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R64" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S64" s="130" t="s">
         <v>26</v>
       </c>
       <c r="T64" s="105" t="s">
@@ -4450,168 +4394,348 @@
       <c r="Y64" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Z64" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA64" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB64" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC64" s="131"/>
-      <c r="AD64" s="131"/>
+      <c r="Z64" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA64" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB64" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC64" s="130"/>
+      <c r="AD64" s="130"/>
       <c r="AE64" s="105"/>
       <c r="AF64" s="105"/>
     </row>
-    <row r="65" spans="1:32" s="141" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="142" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="P65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="R65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="S65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="U65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="W65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="X65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB65" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC65" s="131"/>
-      <c r="AD65" s="131"/>
-      <c r="AE65" s="131"/>
-      <c r="AF65" s="131"/>
-    </row>
-    <row r="66" spans="1:32" s="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="102"/>
-      <c r="G66" s="101"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-    </row>
-    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="65" spans="1:32" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="U65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="V65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="W65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y65" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC65" s="130"/>
+      <c r="AD65" s="130"/>
+      <c r="AE65" s="105"/>
+      <c r="AF65" s="105"/>
+    </row>
+    <row r="66" spans="1:32" s="140" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB66" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC66" s="130"/>
+      <c r="AD66" s="130"/>
+      <c r="AE66" s="130"/>
+      <c r="AF66" s="130"/>
+    </row>
+    <row r="67" spans="1:32" s="140" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB67" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC67" s="130"/>
+      <c r="AD67" s="130"/>
+      <c r="AE67" s="130"/>
+      <c r="AF67" s="130"/>
+    </row>
+    <row r="68" spans="1:32" s="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="102"/>
+      <c r="G68" s="101"/>
+      <c r="Q68" s="140"/>
+      <c r="R68" s="140"/>
+      <c r="S68" s="140"/>
+    </row>
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="71" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-    </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="71" t="s">
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+    </row>
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="71" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="106" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+    </row>
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4626,7 +4750,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4637,39 +4761,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="str">
+      <c r="A1" s="118" t="str">
         <f>Content!A4 &amp; ": " &amp;Content!B4</f>
         <v>eHS(S)D0028-03: Report on cumulative VSS claim transaction by age group and target group</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="116"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="116"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="115"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="112"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="125" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4678,7 +4802,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="109"/>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="110" t="s">
@@ -4686,7 +4810,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="126" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="113" t="s">
@@ -4695,11 +4819,11 @@
       <c r="C8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="132" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="113" t="s">
@@ -4708,20 +4832,20 @@
       <c r="C9" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="D9" s="123"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="113"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="124"/>
-    </row>
-    <row r="11" spans="1:29" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
-        <v>130</v>
+      <c r="F10" s="123"/>
+    </row>
+    <row r="11" spans="1:29" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
+        <v>129</v>
       </c>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
@@ -4746,8 +4870,8 @@
       <c r="AB11" s="64"/>
       <c r="AC11" s="64"/>
     </row>
-    <row r="12" spans="1:29" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
+    <row r="12" spans="1:29" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
@@ -4771,9 +4895,9 @@
       <c r="AB12" s="64"/>
       <c r="AC12" s="64"/>
     </row>
-    <row r="13" spans="1:29" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="134" t="s">
+    <row r="13" spans="1:29" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="137"/>
+      <c r="B13" s="133" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="110" t="s">
@@ -4802,9 +4926,9 @@
       <c r="AB13" s="64"/>
       <c r="AC13" s="64"/>
     </row>
-    <row r="14" spans="1:29" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
-        <v>131</v>
+    <row r="14" spans="1:29" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="132" t="s">
+        <v>136</v>
       </c>
       <c r="B14" s="113" t="s">
         <v>26</v>
@@ -4812,8 +4936,8 @@
       <c r="C14" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="123"/>
+      <c r="F14" s="123"/>
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
@@ -4837,78 +4961,72 @@
       <c r="AB14" s="64"/>
       <c r="AC14" s="64"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="135" t="s">
+    <row r="15" spans="1:29" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="128" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C18" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D18" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E18" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="136" t="s">
+      <c r="F18" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G18" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-    </row>
-    <row r="18" spans="1:29" s="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
@@ -4926,308 +5044,453 @@
       <c r="AB18"/>
       <c r="AC18"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
+    <row r="19" spans="1:29" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
+        <v>103</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-    </row>
-    <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="125" t="s">
+      <c r="B22" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="130"/>
+    </row>
+    <row r="23" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-    </row>
-    <row r="23" spans="1:29" s="141" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="127"/>
-      <c r="G24" s="110"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
+      <c r="B23" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="130"/>
+    </row>
+    <row r="24" spans="1:29" s="140" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+    </row>
+    <row r="25" spans="1:29" s="140" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="137" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="137" t="s">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="136" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="137" t="s">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="137" t="s">
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="136" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="137" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="137" t="s">
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="136" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="136" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-    </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="A36" s="51" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="A37" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="140"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
+      <c r="A40" s="140"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="140"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="140"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="140"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="140"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="140"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="140"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="140"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="140"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="140"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="140"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="140"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="140"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="140"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="140"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="140"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="140"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="140"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="140"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="140"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5255,11 +5518,11 @@
     <col min="5" max="5" width="35.75" style="88" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="49" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="40" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="140" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="139" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="41" customWidth="1"/>
     <col min="10" max="11" width="10.625" style="49" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="140" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="139" customWidth="1"/>
     <col min="14" max="14" width="35.625" style="40" customWidth="1"/>
     <col min="15" max="15" width="31.25" style="40" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="40" customWidth="1"/>
@@ -5279,7 +5542,7 @@
       <c r="E1" s="87"/>
       <c r="F1" s="89"/>
       <c r="G1" s="34"/>
-      <c r="H1" s="140"/>
+      <c r="H1" s="139"/>
       <c r="I1" s="35"/>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
@@ -5318,7 +5581,7 @@
       <c r="E3" s="87"/>
       <c r="F3" s="89"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="140"/>
+      <c r="H3" s="139"/>
       <c r="I3" s="35"/>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
@@ -5367,7 +5630,7 @@
       <c r="G5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="138" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="24" t="s">
@@ -5382,7 +5645,7 @@
       <c r="L5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="M5" s="138" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="21" t="s">
@@ -5459,100 +5722,100 @@
       <c r="B10" s="15"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="124"/>
-      <c r="B32" s="124"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
-      <c r="B33" s="124"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="123"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
@@ -5603,7 +5866,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5662,13 +5925,13 @@
       <c r="A5" s="71">
         <v>2</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="142">
         <v>43026</v>
       </c>
     </row>
@@ -5687,59 +5950,73 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141">
+      <c r="A7" s="140">
         <v>4</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="142">
         <v>43282</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141">
+      <c r="A8" s="140">
         <v>5</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="142">
         <v>43383</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="141">
+      <c r="A9" s="140">
         <v>6</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="142">
         <v>43692</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="141">
+      <c r="A10" s="140">
         <v>7</v>
       </c>
-      <c r="B10" s="141" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="146" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="143">
+      <c r="B10" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="142">
         <v>43747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="140">
+        <v>8</v>
+      </c>
+      <c r="B11" s="140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="142">
+        <v>44075</v>
       </c>
     </row>
   </sheetData>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSD0028-VSS Claim_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSD0028-VSS Claim_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019_BatchUpload\ExcelGenerator\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,12 @@
     <sheet name="Remark" sheetId="6" r:id="rId6"/>
     <sheet name="Change History" sheetId="25" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="144">
   <si>
     <t/>
   </si>
@@ -540,11 +540,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -687,7 +687,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,13 +699,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -723,22 +723,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -747,22 +747,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -774,7 +774,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -795,7 +795,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -822,7 +822,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -987,7 +987,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,7 +1059,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,13 +1929,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="18.625" style="71"/>
+    <col min="1" max="1" width="22.625" style="71" customWidth="1"/>
+    <col min="2" max="16" width="18.625" style="71"/>
     <col min="17" max="19" width="18.625" style="140"/>
     <col min="20" max="16384" width="18.625" style="71"/>
   </cols>
@@ -2632,7 +2633,7 @@
       <c r="AE43" s="78"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="114" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -2722,7 +2723,7 @@
       <c r="AF44" s="26"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -2812,7 +2813,7 @@
       <c r="AF45" s="26"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="114" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -2902,7 +2903,7 @@
       <c r="AF46" s="26"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -2992,7 +2993,7 @@
       <c r="AF47" s="26"/>
     </row>
     <row r="48" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="114" t="s">
         <v>26</v>
       </c>
       <c r="B48" s="130" t="s">
@@ -3082,7 +3083,7 @@
       <c r="AF48" s="130"/>
     </row>
     <row r="49" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="130" t="s">
@@ -3172,7 +3173,7 @@
       <c r="AF49" s="130"/>
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="114" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -3262,7 +3263,7 @@
       <c r="AF50" s="26"/>
     </row>
     <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="26" t="s">
@@ -3352,7 +3353,7 @@
       <c r="AF51" s="26"/>
     </row>
     <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="114" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="26" t="s">
@@ -3442,7 +3443,7 @@
       <c r="AF52" s="26"/>
     </row>
     <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="26" t="s">
@@ -3532,7 +3533,7 @@
       <c r="AF53" s="26"/>
     </row>
     <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="26" t="s">
@@ -3622,7 +3623,7 @@
       <c r="AF54" s="26"/>
     </row>
     <row r="55" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="140" t="s">
+      <c r="A55" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="130" t="s">
@@ -3712,7 +3713,7 @@
       <c r="AF55" s="130"/>
     </row>
     <row r="56" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="130" t="s">
@@ -3802,7 +3803,7 @@
       <c r="AF56" s="130"/>
     </row>
     <row r="57" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="130" t="s">
@@ -3891,390 +3892,503 @@
       <c r="AE57" s="130"/>
       <c r="AF57" s="130"/>
     </row>
-    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P58" s="26" t="s">
-        <v>42</v>
+    <row r="58" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" s="130" t="s">
+        <v>26</v>
       </c>
       <c r="Q58" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="R58" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="S58" s="130" t="s">
-        <v>42</v>
-      </c>
-      <c r="T58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="V58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y58" s="26" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="T58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y58" s="130" t="s">
+        <v>26</v>
       </c>
       <c r="Z58" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AA58" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AB58" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AC58" s="130"/>
       <c r="AD58" s="130"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-    </row>
-    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="130"/>
-      <c r="R59" s="130"/>
-      <c r="S59" s="130"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="130"/>
-      <c r="AA59" s="130"/>
-      <c r="AB59" s="130"/>
+      <c r="AE58" s="130"/>
+      <c r="AF58" s="130"/>
+    </row>
+    <row r="59" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA59" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB59" s="130" t="s">
+        <v>26</v>
+      </c>
       <c r="AC59" s="130"/>
       <c r="AD59" s="130"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-    </row>
-    <row r="60" spans="1:32" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="K60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="L60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="O60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="R60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="S60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="T60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="U60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="V60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="W60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="X60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB60" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC60" s="90"/>
-      <c r="AD60" s="90"/>
-      <c r="AE60" s="90"/>
-      <c r="AF60" s="90"/>
-    </row>
-    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="130"/>
-      <c r="R61" s="130"/>
-      <c r="S61" s="130"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="130"/>
-      <c r="AA61" s="130"/>
-      <c r="AB61" s="130"/>
+      <c r="AE59" s="130"/>
+      <c r="AF59" s="130"/>
+    </row>
+    <row r="60" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB60" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC60" s="130"/>
+      <c r="AD60" s="130"/>
+      <c r="AE60" s="130"/>
+      <c r="AF60" s="130"/>
+    </row>
+    <row r="61" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="T61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="U61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="V61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="W61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="X61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA61" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB61" s="130" t="s">
+        <v>27</v>
+      </c>
       <c r="AC61" s="130"/>
       <c r="AD61" s="130"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
-    </row>
-    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P62" s="26" t="s">
-        <v>42</v>
+      <c r="AE61" s="130"/>
+      <c r="AF61" s="130"/>
+    </row>
+    <row r="62" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="130" t="s">
+        <v>26</v>
       </c>
       <c r="Q62" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="R62" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="S62" s="130" t="s">
-        <v>42</v>
-      </c>
-      <c r="T62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="V62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="W62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y62" s="26" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="T62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y62" s="130" t="s">
+        <v>26</v>
       </c>
       <c r="Z62" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AA62" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AB62" s="130" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AC62" s="130"/>
       <c r="AD62" s="130"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-    </row>
-    <row r="63" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="M63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="O63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="P63" s="105" t="s">
+      <c r="AE62" s="130"/>
+      <c r="AF62" s="130"/>
+    </row>
+    <row r="63" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63" s="130" t="s">
         <v>26</v>
       </c>
       <c r="Q63" s="130" t="s">
@@ -4286,22 +4400,22 @@
       <c r="S63" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="T63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="U63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="V63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="W63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="X63" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y63" s="105" t="s">
+      <c r="T63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y63" s="130" t="s">
         <v>26</v>
       </c>
       <c r="Z63" s="130" t="s">
@@ -4315,146 +4429,146 @@
       </c>
       <c r="AC63" s="130"/>
       <c r="AD63" s="130"/>
-      <c r="AE63" s="105"/>
-      <c r="AF63" s="105"/>
-    </row>
-    <row r="64" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="K64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="M64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="P64" s="105" t="s">
-        <v>26</v>
+      <c r="AE63" s="130"/>
+      <c r="AF63" s="130"/>
+    </row>
+    <row r="64" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="O64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="P64" s="130" t="s">
+        <v>27</v>
       </c>
       <c r="Q64" s="130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R64" s="130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S64" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="T64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="U64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="V64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="W64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="X64" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y64" s="105" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="T64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="U64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="V64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="W64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="X64" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y64" s="130" t="s">
+        <v>27</v>
       </c>
       <c r="Z64" s="130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA64" s="130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB64" s="130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC64" s="130"/>
       <c r="AD64" s="130"/>
-      <c r="AE64" s="105"/>
-      <c r="AF64" s="105"/>
-    </row>
-    <row r="65" spans="1:32" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="K65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="O65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="P65" s="105" t="s">
+      <c r="AE64" s="130"/>
+      <c r="AF64" s="130"/>
+    </row>
+    <row r="65" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="130" t="s">
         <v>26</v>
       </c>
       <c r="Q65" s="130" t="s">
@@ -4466,22 +4580,22 @@
       <c r="S65" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="T65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="U65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="V65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="W65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="X65" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y65" s="105" t="s">
+      <c r="T65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y65" s="130" t="s">
         <v>26</v>
       </c>
       <c r="Z65" s="130" t="s">
@@ -4495,12 +4609,12 @@
       </c>
       <c r="AC65" s="130"/>
       <c r="AD65" s="130"/>
-      <c r="AE65" s="105"/>
-      <c r="AF65" s="105"/>
-    </row>
-    <row r="66" spans="1:32" s="140" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="141" t="s">
-        <v>143</v>
+      <c r="AE65" s="130"/>
+      <c r="AF65" s="130"/>
+    </row>
+    <row r="66" spans="1:32" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="B66" s="130" t="s">
         <v>26</v>
@@ -4588,154 +4702,851 @@
       <c r="AE66" s="130"/>
       <c r="AF66" s="130"/>
     </row>
-    <row r="67" spans="1:32" s="140" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="K67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="P67" s="130" t="s">
-        <v>26</v>
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="Q67" s="130" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R67" s="130" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="S67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="T67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="U67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="V67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="W67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="X67" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y67" s="130" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="T67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y67" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="Z67" s="130" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AA67" s="130" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AB67" s="130" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AC67" s="130"/>
       <c r="AD67" s="130"/>
-      <c r="AE67" s="130"/>
-      <c r="AF67" s="130"/>
-    </row>
-    <row r="68" spans="1:32" s="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="102"/>
-      <c r="G68" s="101"/>
-      <c r="Q68" s="140"/>
-      <c r="R68" s="140"/>
-      <c r="S68" s="140"/>
-    </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+      <c r="AE67" s="26"/>
+      <c r="AF67" s="26"/>
+    </row>
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="130"/>
+      <c r="R68" s="130"/>
+      <c r="S68" s="130"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="130"/>
+      <c r="AA68" s="130"/>
+      <c r="AB68" s="130"/>
+      <c r="AC68" s="130"/>
+      <c r="AD68" s="130"/>
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+    </row>
+    <row r="69" spans="1:32" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="L69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="P69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="R69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="T69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="U69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="V69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="W69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="X69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB69" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC69" s="90"/>
+      <c r="AD69" s="90"/>
+      <c r="AE69" s="90"/>
+      <c r="AF69" s="90"/>
     </row>
     <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="130"/>
+      <c r="R70" s="130"/>
+      <c r="S70" s="130"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="26"/>
+      <c r="W70" s="26"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="130"/>
+      <c r="AA70" s="130"/>
+      <c r="AB70" s="130"/>
+      <c r="AC70" s="130"/>
+      <c r="AD70" s="130"/>
+      <c r="AE70" s="26"/>
+      <c r="AF70" s="26"/>
     </row>
     <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R71" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="S71" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z71" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA71" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB71" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC71" s="130"/>
+      <c r="AD71" s="130"/>
+      <c r="AE71" s="26"/>
+      <c r="AF71" s="26"/>
+    </row>
+    <row r="72" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="P72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q72" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="U72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="V72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="W72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y72" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z72" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA72" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB72" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC72" s="130"/>
+      <c r="AD72" s="130"/>
+      <c r="AE72" s="105"/>
+      <c r="AF72" s="105"/>
+    </row>
+    <row r="73" spans="1:32" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="P73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q73" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R73" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="U73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="V73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="W73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y73" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z73" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA73" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB73" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC73" s="130"/>
+      <c r="AD73" s="130"/>
+      <c r="AE73" s="105"/>
+      <c r="AF73" s="105"/>
+    </row>
+    <row r="74" spans="1:32" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q74" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R74" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="U74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="V74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="W74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y74" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z74" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA74" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB74" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC74" s="130"/>
+      <c r="AD74" s="130"/>
+      <c r="AE74" s="105"/>
+      <c r="AF74" s="105"/>
+    </row>
+    <row r="75" spans="1:32" s="140" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB75" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC75" s="130"/>
+      <c r="AD75" s="130"/>
+      <c r="AE75" s="130"/>
+      <c r="AF75" s="130"/>
+    </row>
+    <row r="76" spans="1:32" s="140" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="P76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="T76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="U76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="V76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="W76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB76" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC76" s="130"/>
+      <c r="AD76" s="130"/>
+      <c r="AE76" s="130"/>
+      <c r="AF76" s="130"/>
+    </row>
+    <row r="77" spans="1:32" s="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="102"/>
+      <c r="G77" s="101"/>
+      <c r="Q77" s="140"/>
+      <c r="R77" s="140"/>
+      <c r="S77" s="140"/>
+    </row>
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+    </row>
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106" t="s">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106" t="s">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-    </row>
-    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="106" t="s">
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="106" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="106" t="s">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSD0028-VSS Claim_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSD0028-VSS Claim_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-010 (VSS 2021-2022)\Front-end\Phase 3 - Claim\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eh5-vm-test2\ehs$\Development\InternalChangeControl\2022\CRE21-021 (VSS daily report with outreach info)\Front-end\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="699">
   <si>
     <t/>
   </si>
@@ -2144,13 +2144,37 @@
   </si>
   <si>
     <t>CRE21-010-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE21-021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Vaccine information in VSS Daily report </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice No.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outreach Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outreach Name (In English)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outreach Address  (In English)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
@@ -5610,109 +5634,122 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="40" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="47" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="48" customWidth="1"/>
-    <col min="4" max="4" width="15" style="41" customWidth="1"/>
-    <col min="5" max="5" width="35.75" style="88" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="40" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="139" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="41" customWidth="1"/>
-    <col min="10" max="11" width="10.625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="139" customWidth="1"/>
-    <col min="14" max="14" width="35.625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="31.25" style="40" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="40" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="40" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="48" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="40" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="40"/>
+    <col min="4" max="4" width="13.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.75" style="88" customWidth="1"/>
+    <col min="8" max="8" width="15" style="41" customWidth="1"/>
+    <col min="9" max="9" width="35.75" style="88" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="40" customWidth="1"/>
+    <col min="12" max="12" width="23.125" style="139" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="41" customWidth="1"/>
+    <col min="14" max="15" width="10.625" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="40" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="139" customWidth="1"/>
+    <col min="18" max="18" width="35.625" style="40" customWidth="1"/>
+    <col min="19" max="19" width="31.25" style="40" customWidth="1"/>
+    <col min="20" max="20" width="18.75" style="40" customWidth="1"/>
+    <col min="21" max="21" width="27.5" style="40" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="48" customWidth="1"/>
+    <col min="23" max="23" width="10.25" style="40" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="31"/>
-      <c r="D1" s="33"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="87"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
-      <c r="G2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="42"/>
       <c r="Q2" s="42"/>
-      <c r="R2" s="45"/>
-    </row>
-    <row r="3" spans="1:18" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>676</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="D3" s="33"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="37"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="37"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="40"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>122</v>
       </c>
@@ -5722,63 +5759,75 @@
       <c r="C5" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="I5" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="138" t="s">
+      <c r="L5" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="M5" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="N5" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="138" t="s">
+      <c r="Q5" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="S5" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="29"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="139"/>
-      <c r="L7" s="139"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="139"/>
-      <c r="L8" s="139"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="139"/>
-      <c r="L9" s="139"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="139"/>
-      <c r="L10" s="139"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="29"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="139"/>
+      <c r="P7" s="139"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="139"/>
+      <c r="P8" s="139"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="139"/>
+      <c r="P9" s="139"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="139"/>
+      <c r="P10" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8197,9 +8246,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8364,9 +8415,24 @@
         <v>44475</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="140">
+        <v>10</v>
+      </c>
+      <c r="B13" s="140" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" s="141" t="s">
+        <v>694</v>
+      </c>
+      <c r="D13" s="142">
+        <v>44650</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>